--- a/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
+++ b/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LEINSTER/Documents/gamebusdriver/plan/1.컨텐츠/캐릭터 설정/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leinster\Documents\GitHub\gamebusdriver\plan\1.컨텐츠\캐릭터 설정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -360,11 +360,6 @@
     <t>moveSpeed</t>
   </si>
   <si>
-    <t>편돌이는 푸른 청동의 산맥에 수백년간 신비로운 존재로 감춰져 있던 종족, 노루막이입니다. 그들의 종족은 산맥 너머로 나가는 행위를 엄격하게 금했고 17살이 되도록 편돌이는 저 멀리 푸르게 빛나는 산맥을 넘어서본 적이 없습니다. 모험심이 넘치는 그에게 산맥 너머는 항상 탐구대상입니다.
-어느날 푸른 대장장이들이 만들어 놓은 결계가 깨져 푸른 청동의 산맥으로 악마들이 나타나기 시작했고, 편돌이는 일종을 대표해서 그 원인을 찾으러 모험을 떠납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전방 60도, 거리 1M의 부채꼴에 피해를 입힌다.
 데미지 배율은 1.0
 칼을 왼쪽에서 오른쪽으로 횡으로 벤다</t>
@@ -489,12 +484,17 @@
 쿨타임 없음 / 모든 발열 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>편돌이는 푸른 청동의 산맥에 수백년간 신비로운 존재로 감춰져 있던 종족, 노루막이입니다. 그들의 종족은 산맥 너머로 나가는 행위를 엄격하게 금했고 17살이 되도록 편돌이는 저 멀리 푸르게 빛나는 산맥을 넘어서본 적이 없습니다. 모험심이 넘치는 그에게 산맥 너머는 항상 탐구대상입니다.
+어느날 푸른 대장장이들이 만들어 놓은 결계가 깨져 푸른 청동의 산맥으로 악마들이 나타나기 시작했고, 편돌이는 일종을 대표해서 그 원인을 찾으러 모험을 떠납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -705,10 +705,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,12 +733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,9 +744,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,23 +760,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -793,7 +796,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1090,43 +1099,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14">
       <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:14" ht="218" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="2:14" ht="218.1" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1135,7 +1144,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="B4" s="12" t="s">
         <v>30</v>
       </c>
@@ -1146,25 +1155,25 @@
         <v>55</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1175,25 +1184,25 @@
         <v>66</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
@@ -1206,21 +1215,21 @@
       <c r="E6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-    </row>
-    <row r="7" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="2:14" ht="63" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1233,21 +1242,21 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="36" t="s">
-        <v>109</v>
+      <c r="F7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1260,21 +1269,21 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="F8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="51" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1287,21 +1296,21 @@
       <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="36" t="s">
-        <v>92</v>
+      <c r="F9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="2:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="57" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1314,21 +1323,21 @@
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="36" t="s">
-        <v>93</v>
+      <c r="F10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="2:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="81" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1341,21 +1350,21 @@
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="36" t="s">
-        <v>94</v>
+      <c r="F11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="2:14" ht="97" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="96.95" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1363,26 +1372,26 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="2:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="78" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1395,21 +1404,21 @@
       <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="36" t="s">
-        <v>98</v>
+      <c r="F13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="2:14" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="99" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1422,21 +1431,21 @@
       <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="36" t="s">
-        <v>99</v>
+      <c r="F14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="2:14" ht="104" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="104.1" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1449,26 +1458,26 @@
       <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="36" t="s">
-        <v>100</v>
+      <c r="F15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="2:14" ht="89" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="89.1" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>50</v>
@@ -1476,48 +1485,48 @@
       <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="36" t="s">
-        <v>101</v>
+      <c r="F16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="2:31" ht="89" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" ht="89.1" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="36" t="s">
-        <v>116</v>
+      <c r="F17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1530,21 +1539,21 @@
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="F18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1557,21 +1566,21 @@
       <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="37"/>
+      <c r="F19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1584,21 +1593,21 @@
       <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="F20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31">
       <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1611,12 +1620,12 @@
       <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="20" t="s">
         <v>54</v>
       </c>
@@ -1625,7 +1634,7 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31">
       <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
@@ -1638,21 +1647,21 @@
       <c r="E22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="F22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31">
       <c r="B23" s="17" t="s">
         <v>61</v>
       </c>
@@ -1665,14 +1674,14 @@
       <c r="E23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="F23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -1696,7 +1705,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -1709,21 +1718,21 @@
       <c r="E24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1738,7 +1747,7 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31">
       <c r="B26" s="6" t="s">
         <v>77</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31">
       <c r="B27" s="8" t="s">
         <v>78</v>
       </c>
@@ -1822,11 +1831,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
@@ -1843,32 +1865,20 @@
     <mergeCell ref="J24:N24"/>
     <mergeCell ref="J19:N19"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J20:N20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
+++ b/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7935" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="편돌이" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>stun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,39 +52,10 @@
     <t>skill3</t>
   </si>
   <si>
-    <t>스킬3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal4</t>
-  </si>
-  <si>
-    <t>일반공격4</t>
-  </si>
-  <si>
-    <t>normal3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반공격3</t>
-  </si>
-  <si>
     <t>normal2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마음대로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,90 +153,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에 별 빙글빙글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위에 별 빙글빙글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘어지고 일어나는 모션까지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키워드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한손검과 방패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,14 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>편돌이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +222,6 @@
   </si>
   <si>
     <t>약한피해입음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘어짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,23 +295,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방 60도, 거리 1M의 부채꼴에 피해를 입힌다.
-데미지 배율은 1.2
-칼을 왼쪽 아래에서 오른쪽 위 사선으로 크게 벤다. 베면서 팔이 어꺠 뒤까지 튕겨나감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>흰 궤적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방 60도, 거리 1.5M의 부채꼴에 피해를 입힌다.
-데미지 배율은 1.5
-공격 3의 애니메이션에서 빠르게 앞으로 찌른다. 긴 애니메이션 시간을 주어 회피나 스킬로 애니메이션 캔슬을 유도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,13 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방 30도, 거리 1m의 부채꼴에 피해를 입힌다.
-데미지 배율은 2.0
-방패를 앞세우고 전방으로 10M 빠르게 질주한다. 적을 만나면 그 자리에 멈추며 강하게 밀쳐낸다.
-쿨타임 10초 / 룬 3개 소모(적 타격시 1개 회복)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전방 30도, 거리 2M의 사다리꼴에 피해를 입힌다.
 데미지 배율은 4.0
 점프하며 칼날로 강하게 내려찍는다.
@@ -487,6 +387,103 @@
   <si>
     <t>편돌이는 푸른 청동의 산맥에 수백년간 신비로운 존재로 감춰져 있던 종족, 노루막이입니다. 그들의 종족은 산맥 너머로 나가는 행위를 엄격하게 금했고 17살이 되도록 편돌이는 저 멀리 푸르게 빛나는 산맥을 넘어서본 적이 없습니다. 모험심이 넘치는 그에게 산맥 너머는 항상 탐구대상입니다.
 어느날 푸른 대장장이들이 만들어 놓은 결계가 깨져 푸른 청동의 산맥으로 악마들이 나타나기 시작했고, 편돌이는 일종을 대표해서 그 원인을 찾으러 모험을 떠납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반공격3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>540~580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼 꺼내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등에 걸고 있는 칼과 방패를 꺼냄.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180~220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230~270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310~360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>275~310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>370~400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410~440
+450~480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490~530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>590~620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,6 +491,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -550,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -647,11 +647,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,24 +715,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,6 +738,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,6 +758,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AE27"/>
+  <dimension ref="B2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:I14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1113,29 +1128,29 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:14" ht="218.1" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1146,414 +1161,412 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="22"/>
+        <v>89</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="27"/>
       <c r="H4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="2:14" ht="63" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="2:14" ht="51" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="2:14" ht="51" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="2:14" ht="57" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="2:14" ht="78" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="2:14" ht="99" customHeight="1">
+      <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="2:14" ht="57" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="2:14" ht="81" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="2:14" ht="96.95" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="19" t="s">
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="2:14" ht="104.1" customHeight="1">
+      <c r="B14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="2:14" ht="78" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="19" t="s">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="2:14" ht="89.1" customHeight="1">
+      <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="2:14" ht="99" customHeight="1">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="2:14" ht="104.1" customHeight="1">
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="2:14" ht="89.1" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="2:31" ht="89.1" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="2:26" ht="89.1" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="2:31">
+        <v>30</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="2:31">
+        <v>33</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="2:26">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1561,320 +1574,286 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="2:31">
+        <v>34</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-    </row>
-    <row r="21" spans="2:31">
+        <v>30</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="B22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="2:26">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="2:31">
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="2:31">
-      <c r="B23" s="17" t="s">
+      <c r="E25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="G25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="H25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-    </row>
-    <row r="24" spans="2:31">
-      <c r="B24" s="2" t="s">
+      <c r="I25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="B26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="2:31">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="2:31">
-      <c r="B26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:31">
-      <c r="B27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="E26" s="9">
         <v>5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F26" s="9">
         <v>5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G26" s="9">
         <v>5</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H26" s="9">
         <v>5</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I26" s="9">
         <v>100</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J26" s="9">
         <v>10</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K26" s="9">
         <v>10</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L26" s="9">
         <v>10</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M26" s="9">
         <v>100</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N26" s="9">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
+  <mergeCells count="42">
     <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:N16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="J17:N17"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
+++ b/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>stun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>normalDam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,18 +153,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위에 별 빙글빙글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,19 +209,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>약한피해입음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>밀려남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nuckBack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전방으로 구른다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,10 +327,6 @@
   <si>
     <t>칼을 왼쪽 허리춤에, 방패는 등에 걸고 숨을 내쉰다.
 애니메이션은 앞부분에 칼과 방패를 거는 모션을 넣고, 후반부만 루핑되도록 클라에 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주춤한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,6 +456,18 @@
   </si>
   <si>
     <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>630~760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>770~850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850~880</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +698,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,9 +743,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,24 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z26"/>
+  <dimension ref="B2:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1128,29 +1112,29 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="D2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="218.1" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1161,657 +1145,655 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="2:14" ht="63" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:14" ht="51" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="2:14" ht="57" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="2:14" ht="78" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:14" ht="99" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>113</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:14" ht="104.1" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:14" ht="89.1" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:14" ht="89.1" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:26" ht="89.1" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="B21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:26">
+      <c r="B24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" spans="2:26">
-      <c r="B21" s="2" t="s">
+      <c r="C24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="2:26">
-      <c r="B22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="2:26">
-      <c r="B23" s="2" t="s">
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="2:26">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="2:26">
-      <c r="B25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26">
-      <c r="B26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="E25" s="9">
         <v>5</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F25" s="9">
         <v>5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G25" s="9">
         <v>5</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H25" s="9">
         <v>5</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I25" s="9">
         <v>100</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J25" s="9">
         <v>10</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K25" s="9">
         <v>10</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L25" s="9">
         <v>10</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M25" s="9">
         <v>100</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N25" s="9">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="40">
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="J17:N17"/>
@@ -1825,35 +1807,8 @@
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:N9"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
+++ b/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>stun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,13 +42,6 @@
   </si>
   <si>
     <t>달리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill3</t>
-  </si>
-  <si>
-    <t>skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,6 +461,18 @@
   </si>
   <si>
     <t>850~880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,18 +709,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,42 +764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1112,29 +1117,29 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="218.1" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1145,110 +1150,110 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="I4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="F6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="2:14" ht="63" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="21" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -1257,25 +1262,25 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -1284,23 +1289,23 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -1309,25 +1314,25 @@
     </row>
     <row r="10" spans="2:14" ht="51" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>66</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -1336,25 +1341,25 @@
     </row>
     <row r="11" spans="2:14" ht="57" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="21" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -1363,25 +1368,25 @@
     </row>
     <row r="12" spans="2:14" ht="78" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="21" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -1390,25 +1395,25 @@
     </row>
     <row r="13" spans="2:14" ht="99" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="21" t="s">
-        <v>91</v>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -1417,25 +1422,25 @@
     </row>
     <row r="14" spans="2:14" ht="104.1" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="21" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -1444,25 +1449,25 @@
     </row>
     <row r="15" spans="2:14" ht="89.1" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="21" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -1471,25 +1476,25 @@
     </row>
     <row r="16" spans="2:14" ht="89.1" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="21" t="s">
-        <v>109</v>
+        <v>27</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -1498,25 +1503,25 @@
     </row>
     <row r="17" spans="2:26" ht="89.1" customHeight="1">
       <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="21" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -1525,25 +1530,25 @@
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -1558,19 +1563,19 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -1579,25 +1584,25 @@
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="F20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -1606,25 +1611,25 @@
     </row>
     <row r="21" spans="2:26">
       <c r="B21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="F21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -1651,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -1687,48 +1692,48 @@
     </row>
     <row r="24" spans="2:26">
       <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:26">
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -1769,16 +1774,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
@@ -1795,20 +1804,16 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J15:N15"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
+++ b/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>달리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,9 +58,6 @@
   </si>
   <si>
     <t>ㅇ</t>
-  </si>
-  <si>
-    <t>idle</t>
   </si>
   <si>
     <t>대기</t>
@@ -411,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180~220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>80~170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +462,18 @@
   </si>
   <si>
     <t>skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalidle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190~220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightrun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,9 +481,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -649,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,9 +699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1117,29 +1112,29 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:14" ht="218.1" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1150,491 +1145,491 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="F6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="63" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="2:14" ht="51" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14" ht="57" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:14" ht="78" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:14" ht="99" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="F13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="2:14" ht="104.1" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" ht="89.1" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="2:14" ht="89.1" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:26" ht="89.1" customHeight="1">
       <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="F20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="2:26">
       <c r="B21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="F21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1656,24 +1651,24 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23" s="11"/>
@@ -1692,48 +1687,48 @@
     </row>
     <row r="24" spans="2:26">
       <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:26">
       <c r="B25" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>

--- a/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
+++ b/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
@@ -511,7 +511,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +536,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -647,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,10 +710,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,9 +752,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,18 +768,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1117,24 +1126,24 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="218.1" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1156,21 +1165,21 @@
       <c r="E4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
@@ -1185,21 +1194,21 @@
       <c r="E5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="12" t="s">
@@ -1214,25 +1223,25 @@
       <c r="E6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="2:14" ht="63" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1241,25 +1250,25 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="35" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1268,25 +1277,25 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1295,23 +1304,23 @@
       <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="2:14" ht="51" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1320,25 +1329,25 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="35" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="2:14" ht="57" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1347,25 +1356,25 @@
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="35" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:14" ht="78" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1374,25 +1383,25 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="35" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="2:14" ht="99" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1401,25 +1410,25 @@
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="35" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="2:14" ht="104.1" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1428,25 +1437,25 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="35" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="2:14" ht="89.1" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1455,25 +1464,25 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="35" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="2:14" ht="89.1" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1482,25 +1491,25 @@
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="35" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="2:26" ht="89.1" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1509,25 +1518,25 @@
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="35" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1536,25 +1545,25 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1563,25 +1572,25 @@
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="21" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1590,19 +1599,19 @@
       <c r="E20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="2:26">
       <c r="B21" s="17" t="s">
@@ -1617,19 +1626,19 @@
       <c r="E21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1656,19 +1665,19 @@
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23" s="11"/>
@@ -1769,20 +1778,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
@@ -1799,16 +1804,20 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J15:N15"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
+++ b/plan/1.컨텐츠/캐릭터 설정/플레이어.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leinster\Documents\GitHub\gamebusdriver\plan\1.컨텐츠\캐릭터 설정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leinster\Documents\gamebusdriver\plan\1.컨텐츠\캐릭터 설정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,21 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +737,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,6 +756,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,10 +1105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1126,24 +1129,24 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="218.1" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1165,21 +1168,21 @@
       <c r="E4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
@@ -1201,14 +1204,14 @@
       <c r="H5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="12" t="s">
@@ -1223,19 +1226,19 @@
       <c r="E6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="2:14" ht="63" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -1256,13 +1259,13 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
@@ -1283,13 +1286,13 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="2" t="s">
@@ -1308,13 +1311,13 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:14" ht="51" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -1335,13 +1338,13 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="2:14" ht="57" customHeight="1">
       <c r="B11" s="2" t="s">
@@ -1362,13 +1365,13 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="2:14" ht="78" customHeight="1">
       <c r="B12" s="2" t="s">
@@ -1389,13 +1392,13 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:14" ht="99" customHeight="1">
       <c r="B13" s="2" t="s">
@@ -1416,13 +1419,13 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:14" ht="104.1" customHeight="1">
       <c r="B14" s="2" t="s">
@@ -1443,13 +1446,13 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:14" ht="89.1" customHeight="1">
       <c r="B15" s="2" t="s">
@@ -1470,13 +1473,13 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:14" ht="89.1" customHeight="1">
       <c r="B16" s="2" t="s">
@@ -1497,13 +1500,13 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:26" ht="89.1" customHeight="1">
       <c r="B17" s="2" t="s">
@@ -1524,13 +1527,13 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="2" t="s">
@@ -1551,13 +1554,13 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="2" t="s">
@@ -1572,19 +1575,19 @@
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="23" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="2" t="s">
@@ -1605,13 +1608,13 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:26">
       <c r="B21" s="17" t="s">
@@ -1632,13 +1635,13 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1671,13 +1674,13 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23" s="11"/>
@@ -1778,16 +1781,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
@@ -1804,24 +1811,20 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J15:N15"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>